--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mdk-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mdk-Sdc4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.891504666666667</v>
+        <v>0.538445</v>
       </c>
       <c r="H2">
-        <v>8.674514</v>
+        <v>1.615335</v>
       </c>
       <c r="I2">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="J2">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.300909333333333</v>
+        <v>0.303146</v>
       </c>
       <c r="N2">
-        <v>6.902728</v>
+        <v>0.909438</v>
       </c>
       <c r="O2">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700541</v>
       </c>
       <c r="P2">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700542</v>
       </c>
       <c r="Q2">
-        <v>6.653090074910222</v>
+        <v>0.16322744797</v>
       </c>
       <c r="R2">
-        <v>59.877810674192</v>
+        <v>1.46904703173</v>
       </c>
       <c r="S2">
-        <v>0.00458370644926279</v>
+        <v>0.0001733969179253629</v>
       </c>
       <c r="T2">
-        <v>0.004583706449262789</v>
+        <v>0.0001733969179253629</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.891504666666667</v>
+        <v>0.538445</v>
       </c>
       <c r="H3">
-        <v>8.674514</v>
+        <v>1.615335</v>
       </c>
       <c r="I3">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="J3">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>50.889365</v>
       </c>
       <c r="O3">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="P3">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="Q3">
-        <v>49.04894546040111</v>
+        <v>9.133708045808332</v>
       </c>
       <c r="R3">
-        <v>441.44050914361</v>
+        <v>82.203372412275</v>
       </c>
       <c r="S3">
-        <v>0.03379271362704543</v>
+        <v>0.009702760436861925</v>
       </c>
       <c r="T3">
-        <v>0.03379271362704543</v>
+        <v>0.009702760436861925</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.891504666666667</v>
+        <v>0.538445</v>
       </c>
       <c r="H4">
-        <v>8.674514</v>
+        <v>1.615335</v>
       </c>
       <c r="I4">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="J4">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>41.655263</v>
+        <v>41.67881</v>
       </c>
       <c r="N4">
-        <v>124.965789</v>
+        <v>125.03643</v>
       </c>
       <c r="O4">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="P4">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="Q4">
-        <v>120.4463873557273</v>
+        <v>22.44174685045</v>
       </c>
       <c r="R4">
-        <v>1084.017486201546</v>
+        <v>201.97572165405</v>
       </c>
       <c r="S4">
-        <v>0.08298262556144657</v>
+        <v>0.02383992266695518</v>
       </c>
       <c r="T4">
-        <v>0.08298262556144657</v>
+        <v>0.02383992266695518</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>36.121289</v>
       </c>
       <c r="I5">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905094</v>
       </c>
       <c r="J5">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905093</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.300909333333333</v>
+        <v>0.303146</v>
       </c>
       <c r="N5">
-        <v>6.902728</v>
+        <v>0.909438</v>
       </c>
       <c r="O5">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700541</v>
       </c>
       <c r="P5">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700542</v>
       </c>
       <c r="Q5">
-        <v>27.70393699737689</v>
+        <v>3.650008091731333</v>
       </c>
       <c r="R5">
-        <v>249.335432976392</v>
+        <v>32.850072825582</v>
       </c>
       <c r="S5">
-        <v>0.01908687741411047</v>
+        <v>0.003877412539251186</v>
       </c>
       <c r="T5">
-        <v>0.01908687741411047</v>
+        <v>0.003877412539251186</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>36.121289</v>
       </c>
       <c r="I6">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905094</v>
       </c>
       <c r="J6">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905093</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>50.889365</v>
       </c>
       <c r="O6">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="P6">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="Q6">
-        <v>204.2432733546094</v>
+        <v>204.2432733546095</v>
       </c>
       <c r="R6">
         <v>1838.189460191485</v>
       </c>
       <c r="S6">
-        <v>0.140715246412277</v>
+        <v>0.2169681297301525</v>
       </c>
       <c r="T6">
-        <v>0.140715246412277</v>
+        <v>0.2169681297301525</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>36.121289</v>
       </c>
       <c r="I7">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905094</v>
       </c>
       <c r="J7">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905093</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.655263</v>
+        <v>41.67881</v>
       </c>
       <c r="N7">
-        <v>124.965789</v>
+        <v>125.03643</v>
       </c>
       <c r="O7">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="P7">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="Q7">
-        <v>501.5472643980023</v>
+        <v>501.8307803953634</v>
       </c>
       <c r="R7">
-        <v>4513.92537958202</v>
+        <v>4516.47702355827</v>
       </c>
       <c r="S7">
-        <v>0.3455455141214596</v>
+        <v>0.5330960676211057</v>
       </c>
       <c r="T7">
-        <v>0.3455455141214596</v>
+        <v>0.5330960676211057</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.894098999999999</v>
+        <v>3.391101666666666</v>
       </c>
       <c r="H8">
-        <v>26.682297</v>
+        <v>10.173305</v>
       </c>
       <c r="I8">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877482</v>
       </c>
       <c r="J8">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877481</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.300909333333333</v>
+        <v>0.303146</v>
       </c>
       <c r="N8">
-        <v>6.902728</v>
+        <v>0.909438</v>
       </c>
       <c r="O8">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700541</v>
       </c>
       <c r="P8">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700542</v>
       </c>
       <c r="Q8">
-        <v>20.46451540069066</v>
+        <v>1.027998905843333</v>
       </c>
       <c r="R8">
-        <v>184.180638606216</v>
+        <v>9.251990152589999</v>
       </c>
       <c r="S8">
-        <v>0.01409921257145301</v>
+        <v>0.001092045756523993</v>
       </c>
       <c r="T8">
-        <v>0.01409921257145301</v>
+        <v>0.001092045756523993</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.894098999999999</v>
+        <v>3.391101666666666</v>
       </c>
       <c r="H9">
-        <v>26.682297</v>
+        <v>10.173305</v>
       </c>
       <c r="I9">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877482</v>
       </c>
       <c r="J9">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877481</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>50.889365</v>
       </c>
       <c r="O9">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="P9">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="Q9">
-        <v>150.8716834523783</v>
+        <v>57.52367015570277</v>
       </c>
       <c r="R9">
-        <v>1357.845151071405</v>
+        <v>517.7130314013249</v>
       </c>
       <c r="S9">
-        <v>0.103944407886456</v>
+        <v>0.06110753575334504</v>
       </c>
       <c r="T9">
-        <v>0.103944407886456</v>
+        <v>0.06110753575334503</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.894098999999999</v>
+        <v>3.391101666666666</v>
       </c>
       <c r="H10">
-        <v>26.682297</v>
+        <v>10.173305</v>
       </c>
       <c r="I10">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877482</v>
       </c>
       <c r="J10">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877481</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.655263</v>
+        <v>41.67881</v>
       </c>
       <c r="N10">
-        <v>124.965789</v>
+        <v>125.03643</v>
       </c>
       <c r="O10">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="P10">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="Q10">
-        <v>370.4860329930369</v>
+        <v>141.3370820556833</v>
       </c>
       <c r="R10">
-        <v>3334.374296937333</v>
+        <v>1272.03373850115</v>
       </c>
       <c r="S10">
-        <v>0.2552496959564892</v>
+        <v>0.1501427285778792</v>
       </c>
       <c r="T10">
-        <v>0.2552496959564892</v>
+        <v>0.1501427285778791</v>
       </c>
     </row>
   </sheetData>
